--- a/quizsheets/m4_mada_data_finding_wrangling_student.xlsx
+++ b/quizsheets/m4_mada_data_finding_wrangling_student.xlsx
@@ -407,11 +407,6 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>m4_mada_data_finding_wrangling</t>
-        </is>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>quiz4q2</t>
@@ -429,11 +424,6 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>m4_mada_data_finding_wrangling</t>
-        </is>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>quiz4q3</t>
@@ -451,11 +441,6 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>m4_mada_data_finding_wrangling</t>
-        </is>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>quiz4q4</t>
@@ -473,11 +458,6 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>m4_mada_data_finding_wrangling</t>
-        </is>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>quiz4q5</t>
@@ -495,11 +475,6 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>m4_mada_data_finding_wrangling</t>
-        </is>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>quiz4q6</t>
@@ -517,11 +492,6 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>m4_mada_data_finding_wrangling</t>
-        </is>
-      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>quiz4q7</t>
@@ -539,11 +509,6 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>m4_mada_data_finding_wrangling</t>
-        </is>
-      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>quiz4q8</t>
@@ -561,11 +526,6 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>m4_mada_data_finding_wrangling</t>
-        </is>
-      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>quiz4q9</t>
@@ -583,11 +543,6 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>m4_mada_data_finding_wrangling</t>
-        </is>
-      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>quiz4q10</t>
